--- a/pattern.xlsx
+++ b/pattern.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240"/>
+    <workbookView xWindow="90" yWindow="135" windowWidth="22935" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="2">
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -352,13 +355,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="2.77734375" customWidth="1"/>
+    <col min="1" max="7" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -690,12 +693,544 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="13" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>5-4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f>5-3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f>5-2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -706,7 +1241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
